--- a/Лотки.xlsx
+++ b/Лотки.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
   <si>
     <t>Лоток перфорированный Стандарт, 150х80x3000</t>
   </si>
@@ -185,13 +186,28 @@
   </si>
   <si>
     <t>КПСЭнг(A)-FRHF2х2х0,75</t>
+  </si>
+  <si>
+    <t>ПИ</t>
+  </si>
+  <si>
+    <t>Eth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F/UTP Cat5e ZH нг(А)-HF </t>
+  </si>
+  <si>
+    <t>4х2х0,52</t>
+  </si>
+  <si>
+    <t>F/UTP Cat5e ZH нг(А)-HF 4х2х0,52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +265,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -264,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -292,11 +315,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,6 +423,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -983,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q37"/>
+  <dimension ref="A2:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:P14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,13 +1107,14 @@
     <col min="5" max="6" width="8.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="19.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="22.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1096,8 +1206,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="11">
-        <f>30+40</f>
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="D11" s="11">
         <v>4</v>
@@ -1110,15 +1219,15 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ref="H11:H28" si="1">ROUND(G11*C$6, -1)</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ref="J11:J28" si="2">I11-H11</f>
-        <v>-150</v>
+        <v>-200</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>46</v>
@@ -1135,11 +1244,11 @@
       </c>
       <c r="P11" s="1">
         <f>SUMIF(M$11:M$28,O11,H$11:H$28)</f>
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="Q11" s="1">
         <f>SUM(H13:H17)</f>
-        <v>480</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1180,7 +1289,7 @@
         <v>47</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f t="shared" ref="M11:O26" si="3">CONCATENATE(K12,L12)</f>
+        <f t="shared" ref="M12:M26" si="3">CONCATENATE(K12,L12)</f>
         <v>КПСЭнг(A)-FRHF2х2х0,5</v>
       </c>
       <c r="O12" t="s">
@@ -1188,43 +1297,43 @@
       </c>
       <c r="P12" s="1">
         <f t="shared" ref="P12:P14" si="4">SUMIF(M$11:M$28,O12,H$11:H$28)</f>
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Q12" s="1">
         <f>SUM(H11:H12)</f>
-        <v>310</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>3</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="16">
         <v>1.6</v>
       </c>
       <c r="C13" s="11">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D13" s="11">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11">
         <v>4</v>
       </c>
-      <c r="E13" s="11">
-        <v>7</v>
-      </c>
       <c r="F13" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>-140</v>
+        <v>-100</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>46</v>
@@ -1240,44 +1349,44 @@
         <v>53</v>
       </c>
       <c r="P13" s="1">
-        <f>SUMIF(M$11:M$28,O13,H$11:H$28)-1200</f>
-        <v>340</v>
+        <f t="shared" si="4"/>
+        <v>540</v>
       </c>
       <c r="Q13" s="1">
-        <f>SUM(H18:H21)</f>
-        <v>340</v>
+        <f>SUM(H18:H21)+H27</f>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="17">
         <v>1.7</v>
       </c>
       <c r="C14" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>-110</v>
+        <v>-50</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>46</v>
@@ -1305,32 +1414,32 @@
       <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="17">
         <v>1.8</v>
       </c>
       <c r="C15" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
       </c>
       <c r="F15" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>46</v>
@@ -1342,20 +1451,23 @@
         <f t="shared" si="3"/>
         <v>КПСЭнг(A)-FRHF1х2х0,5</v>
       </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
       <c r="P15" s="1">
-        <f>SUM(P11:P14)</f>
-        <v>1570</v>
+        <f t="shared" ref="P15" si="5">SUMIF(M$11:M$28,O15,H$11:H$28)</f>
+        <v>200</v>
       </c>
       <c r="Q15" s="1">
-        <f>SUM(Q11:Q14)</f>
-        <v>1570</v>
+        <f>SUM(H28)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="17">
         <v>1.9</v>
       </c>
       <c r="C16" s="1">
@@ -1392,16 +1504,24 @@
         <f t="shared" si="3"/>
         <v>КПСЭнг(A)-FRHF1х2х0,5</v>
       </c>
+      <c r="P16" s="1">
+        <f>SUM(P11:P15)</f>
+        <v>1920</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>SUM(Q11:Q15)</f>
+        <v>1920</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -1414,15 +1534,15 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>46</v>
@@ -1665,7 +1785,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G28" si="5">C23+C$2+D23*C$3+E23*C$4+F23*C$5</f>
+        <f t="shared" ref="G23:G28" si="6">C23+C$2+D23*C$3+E23*C$4+F23*C$5</f>
         <v>71</v>
       </c>
       <c r="H23" s="10">
@@ -1707,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="H24" s="10">
@@ -1749,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="H25" s="10">
@@ -1791,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="H26" s="10">
@@ -1817,21 +1937,18 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" s="1">
-        <v>490</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>46</v>
@@ -1840,7 +1957,7 @@
         <v>49</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f t="shared" ref="M27:M28" si="6">CONCATENATE(K27,L27)</f>
+        <f t="shared" ref="M27:M29" si="7">CONCATENATE(K27,L27)</f>
         <v>КПСЭнг(A)-FRHF1х2х0,75</v>
       </c>
     </row>
@@ -1848,63 +1965,271 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C28" s="1">
-        <v>490</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="1"/>
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M28" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>КПСЭнг(A)-FRHF1х2х0,75</v>
+        <f t="shared" si="7"/>
+        <v>F/UTP Cat5e ZH нг(А)-HF 4х2х0,52</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H29" s="9">
         <f>SUM(H11:H28)</f>
-        <v>2770</v>
-      </c>
+        <v>1920</v>
+      </c>
+      <c r="M29" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="22">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="15" t="s">
         <v>45</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="22">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1914,4 +2239,31 @@
     <ignoredError sqref="B17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="5" t="str">
+        <f t="shared" ref="F31" si="0">CONCATENATE(D31,E31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Лотки.xlsx
+++ b/Лотки.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лоток" sheetId="1" r:id="rId1"/>
+    <sheet name="Кабель" sheetId="2" r:id="rId2"/>
+    <sheet name="М.рукав" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лоток!$A$1:$E$50</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
   <si>
     <t>Лоток перфорированный Стандарт, 150х80x3000</t>
   </si>
@@ -47,9 +50,6 @@
     <t>Держатель крышки</t>
   </si>
   <si>
-    <t>Провод заземляющий сечением 6 мм2 длиной 150 мм</t>
-  </si>
-  <si>
     <t>Угол горизонтальный 90 градусов с крышкой Стандарт</t>
   </si>
   <si>
@@ -59,9 +59,6 @@
     <t>Угол вертикальный внутренний 90 градусов с крышкой Стандарт</t>
   </si>
   <si>
-    <t>ОтветвительТ-образный с крышкой Стандарт</t>
-  </si>
-  <si>
     <t>Кол-во</t>
   </si>
   <si>
@@ -146,21 +143,6 @@
     <t>Коэф. Запаса/Подгона</t>
   </si>
   <si>
-    <t>КПСЭнг(A)-FRHF 1х2х0,5</t>
-  </si>
-  <si>
-    <t>КПСЭнг(A)-FRHF 2х2х0,5</t>
-  </si>
-  <si>
-    <t>KПCЭнr(A)-FRHF 1x2x0,75</t>
-  </si>
-  <si>
-    <t>KПCЭнr(A)-FRHF 2x2x0,75</t>
-  </si>
-  <si>
-    <t>ВВГнг(А)-FRLSLTx 3х1.5</t>
-  </si>
-  <si>
     <t>КПСЭнг(A)-FRHF</t>
   </si>
   <si>
@@ -201,13 +183,22 @@
   </si>
   <si>
     <t>F/UTP Cat5e ZH нг(А)-HF 4х2х0,52</t>
+  </si>
+  <si>
+    <t>Комплект</t>
+  </si>
+  <si>
+    <t>Ответвитель Т-образный с крышкой Стандарт</t>
+  </si>
+  <si>
+    <t>Мюрукав</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +263,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3333CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +306,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -295,96 +321,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,32 +360,39 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,203 +680,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.140625" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <f>120/3</f>
+        <v>40</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="21">
+        <f>SUMIF(A:A,D2,C:C)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <f>B3*C$2</f>
+        <v>40</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21">
+        <f>SUMIF(A:A,D3,C:C)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <f>B4*C$2</f>
+        <v>280</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="21">
+        <f>SUMIF(A:A,D4,C:C)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <f>B5*C$2</f>
+        <v>80</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="21">
+        <f>SUMIF(A:A,D5,C:C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <f>B6*C$2</f>
+        <v>80</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21">
+        <f>SUMIF(A:A,D6,C:C)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <f>B7*C$2</f>
+        <v>80</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="21">
+        <f>SUMIF(A:A,D7,C:C)</f>
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <f>B8*C$2</f>
+        <v>160</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <f>SUMIF(A:A,D8,C:C)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <f>B9*C$2</f>
+        <v>80</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="21">
+        <f>SUMIF(A:A,D9,C:C)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <f>B10*C$2</f>
+        <v>80</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <f>SUMIF(A:A,D10,C:C)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="21">
+        <f>SUMIF(A:A,D11,C:C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <f>C2</f>
+        <v>40</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21">
+        <f>SUMIF(A:A,D12,C:C)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <f>B13*C$12</f>
+        <v>40</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="21">
+        <f>SUMIF(A:A,D13,C:C)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <f>B14*C$12</f>
+        <v>40</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="20">
+        <f>SUMIF(A:A,D14,C:C)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <f>B15*C$12</f>
+        <v>80</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="20">
+        <f>SUMIF(A:A,D15,C:C)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <f>B16*C$12</f>
+        <v>80</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="20">
+        <f>SUMIF(A:A,D16,C:C)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="20">
+        <f>SUMIF(A:A,D17,C:C)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="20">
+        <f>SUMIF(A:A,D18,C:C)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <f>B19*C$18</f>
+        <v>10</v>
+      </c>
+      <c r="E19" s="19">
+        <f ca="1">SUM(E2:E19)</f>
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <f t="shared" ref="C20:C21" si="0">B20*C$18</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <f>12*4</f>
+        <v>48</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <f>B24*C$23</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:C27" si="1">B25*C$23</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -936,40 +1104,60 @@
         <f>12+7</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
         <v>10</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <f>B30*C$29</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <f t="shared" ref="C31:C33" si="2">B31*C$29</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -977,40 +1165,60 @@
         <f>12+7</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <f>B36*C$35</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <f t="shared" ref="C37:C39" si="3">B37*C$35</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1018,40 +1226,60 @@
         <f>12+7</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <f>B42*C$41</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <f t="shared" ref="C43:C45" si="4">B43*C$41</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1059,28 +1287,43 @@
         <f>12+7</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="1">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1">
+        <f>B50*C$49</f>
         <v>7</v>
       </c>
     </row>
@@ -1092,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q52"/>
+  <dimension ref="A2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1363,7 @@
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -1128,7 +1371,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -1136,7 +1379,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1144,7 +1387,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1152,7 +1395,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>1.2</v>
@@ -1160,27 +1403,27 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>90</v>
@@ -1203,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="11">
         <v>115</v>
@@ -1222,7 +1465,7 @@
         <v>166</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" ref="H11:H28" si="1">ROUND(G11*C$6, -1)</f>
+        <f t="shared" ref="H11:H26" si="1">ROUND(G11*C$6, -1)</f>
         <v>200</v>
       </c>
       <c r="J11" s="1">
@@ -1230,23 +1473,23 @@
         <v>-200</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M11" s="1" t="str">
         <f>CONCATENATE(K11,L11)</f>
         <v>КПСЭнг(A)-FRHF2х2х0,5</v>
       </c>
-      <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="O11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="17">
         <f>SUMIF(M$11:M$28,O11,H$11:H$28)</f>
         <v>380</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="17">
         <f>SUM(H13:H17)</f>
         <v>380</v>
       </c>
@@ -1283,23 +1526,23 @@
         <v>-160</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" ref="M12:M26" si="3">CONCATENATE(K12,L12)</f>
         <v>КПСЭнг(A)-FRHF2х2х0,5</v>
       </c>
-      <c r="O12" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="O12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="17">
         <f t="shared" ref="P12:P14" si="4">SUMIF(M$11:M$28,O12,H$11:H$28)</f>
         <v>360</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="17">
         <f>SUM(H11:H12)</f>
         <v>360</v>
       </c>
@@ -1308,7 +1551,7 @@
       <c r="A13" s="11">
         <v>3</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>1.6</v>
       </c>
       <c r="C13" s="11">
@@ -1336,23 +1579,23 @@
         <v>-100</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="3"/>
         <v>КПСЭнг(A)-FRHF1х2х0,5</v>
       </c>
-      <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="O13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="17">
         <f t="shared" si="4"/>
         <v>540</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="17">
         <f>SUM(H18:H21)+H27</f>
         <v>540</v>
       </c>
@@ -1361,7 +1604,7 @@
       <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>1.7</v>
       </c>
       <c r="C14" s="1">
@@ -1389,23 +1632,23 @@
         <v>-50</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="3"/>
         <v>КПСЭнг(A)-FRHF1х2х0,5</v>
       </c>
-      <c r="O14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="O14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="17">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="17">
         <f>SUM(H22:H26)</f>
         <v>440</v>
       </c>
@@ -1414,7 +1657,7 @@
       <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>1.8</v>
       </c>
       <c r="C15" s="1">
@@ -1442,23 +1685,23 @@
         <v>-60</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="3"/>
         <v>КПСЭнг(A)-FRHF1х2х0,5</v>
       </c>
-      <c r="O15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="O15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="17">
         <f t="shared" ref="P15" si="5">SUMIF(M$11:M$28,O15,H$11:H$28)</f>
         <v>200</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="17">
         <f>SUM(H28)</f>
         <v>200</v>
       </c>
@@ -1467,7 +1710,7 @@
       <c r="A16" s="1">
         <v>6</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>1.9</v>
       </c>
       <c r="C16" s="1">
@@ -1495,20 +1738,21 @@
         <v>-80</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="3"/>
         <v>КПСЭнг(A)-FRHF1х2х0,5</v>
       </c>
-      <c r="P16" s="1">
+      <c r="O16" s="18"/>
+      <c r="P16" s="19">
         <f>SUM(P11:P15)</f>
         <v>1920</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="19">
         <f>SUM(Q11:Q15)</f>
         <v>1920</v>
       </c>
@@ -1517,8 +1761,8 @@
       <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>34</v>
+      <c r="B17" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="1">
         <v>45</v>
@@ -1545,10 +1789,10 @@
         <v>-90</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1560,7 +1804,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11">
         <v>40</v>
@@ -1587,10 +1831,10 @@
         <v>-80</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1602,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11">
         <v>45</v>
@@ -1629,10 +1873,10 @@
         <v>-90</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1644,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="11">
         <v>45</v>
@@ -1671,10 +1915,10 @@
         <v>-90</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1686,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11">
         <v>40</v>
@@ -1713,10 +1957,10 @@
         <v>-80</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1728,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>15</v>
@@ -1755,10 +1999,10 @@
         <v>-60</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1770,7 +2014,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <v>30</v>
@@ -1785,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G28" si="6">C23+C$2+D23*C$3+E23*C$4+F23*C$5</f>
+        <f t="shared" ref="G23:G26" si="6">C23+C$2+D23*C$3+E23*C$4+F23*C$5</f>
         <v>71</v>
       </c>
       <c r="H23" s="10">
@@ -1797,10 +2041,10 @@
         <v>-90</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1812,7 +2056,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <v>20</v>
@@ -1839,10 +2083,10 @@
         <v>-80</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M24" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1854,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <v>35</v>
@@ -1881,10 +2125,10 @@
         <v>-100</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M25" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1896,7 +2140,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <v>45</v>
@@ -1923,10 +2167,10 @@
         <v>-110</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M26" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1938,7 +2182,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1">
         <v>200</v>
@@ -1951,13 +2195,13 @@
         <v>-200</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f t="shared" ref="M27:M29" si="7">CONCATENATE(K27,L27)</f>
+        <f t="shared" ref="M27:M28" si="7">CONCATENATE(K27,L27)</f>
         <v>КПСЭнг(A)-FRHF1х2х0,75</v>
       </c>
     </row>
@@ -1966,7 +2210,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1">
         <v>200</v>
@@ -1979,10 +2223,10 @@
         <v>-200</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M28" s="1" t="str">
         <f t="shared" si="7"/>
@@ -1995,242 +2239,6 @@
         <v>1920</v>
       </c>
       <c r="M29" s="5"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="22">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="22">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="22">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2243,25 +2251,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="24" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="24"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="5" t="str">
-        <f t="shared" ref="F31" si="0">CONCATENATE(D31,E31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="5"/>
+    <row r="1" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25">
+        <f>SUM(C1:C9)</f>
+        <v>780</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Лотки.xlsx
+++ b/Лотки.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лоток" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
   <si>
     <t>Лоток перфорированный Стандарт, 150х80x3000</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>Мюрукав</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>18, 19</t>
+  </si>
+  <si>
+    <t>20, 21</t>
+  </si>
+  <si>
+    <t>1x2x0,75</t>
   </si>
 </sst>
 </file>
@@ -313,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -321,11 +333,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +442,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +778,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="21">
-        <f>SUMIF(A:A,D2,C:C)</f>
+        <f t="shared" ref="E2:E18" si="0">SUMIF(A:A,D2,C:C)</f>
         <v>160</v>
       </c>
     </row>
@@ -732,14 +790,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f>B3*C$2</f>
+        <f t="shared" ref="C3:C10" si="1">B3*C$2</f>
         <v>40</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="21">
-        <f>SUMIF(A:A,D3,C:C)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -751,14 +809,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <f>B4*C$2</f>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="21">
-        <f>SUMIF(A:A,D4,C:C)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -770,14 +828,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <f>B5*C$2</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="21">
-        <f>SUMIF(A:A,D5,C:C)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -789,14 +847,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>B6*C$2</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="21">
-        <f>SUMIF(A:A,D6,C:C)</f>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
     </row>
@@ -808,14 +866,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <f>B7*C$2</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="21">
-        <f>SUMIF(A:A,D7,C:C)</f>
+        <f t="shared" si="0"/>
         <v>1977</v>
       </c>
     </row>
@@ -827,14 +885,14 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <f>B8*C$2</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="21">
-        <f>SUMIF(A:A,D8,C:C)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -846,14 +904,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <f>B9*C$2</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="21">
-        <f>SUMIF(A:A,D9,C:C)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -865,14 +923,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <f>B10*C$2</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="21">
-        <f>SUMIF(A:A,D10,C:C)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -881,7 +939,7 @@
         <v>54</v>
       </c>
       <c r="E11" s="21">
-        <f>SUMIF(A:A,D11,C:C)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -900,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="21">
-        <f>SUMIF(A:A,D12,C:C)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
@@ -919,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="21">
-        <f>SUMIF(A:A,D13,C:C)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
@@ -938,7 +996,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="20">
-        <f>SUMIF(A:A,D14,C:C)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -957,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="20">
-        <f>SUMIF(A:A,D15,C:C)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -976,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="20">
-        <f>SUMIF(A:A,D16,C:C)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -985,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="20">
-        <f>SUMIF(A:A,D17,C:C)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -1003,7 +1061,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="20">
-        <f>SUMIF(A:A,D18,C:C)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1031,7 +1089,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20:C21" si="0">B20*C$18</f>
+        <f t="shared" ref="C20:C21" si="2">B20*C$18</f>
         <v>120</v>
       </c>
     </row>
@@ -1043,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -1080,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:C27" si="1">B25*C$23</f>
+        <f t="shared" ref="C25:C27" si="3">B25*C$23</f>
         <v>48</v>
       </c>
     </row>
@@ -1092,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
     </row>
@@ -1105,7 +1163,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>912</v>
       </c>
     </row>
@@ -1141,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" ref="C31:C33" si="2">B31*C$29</f>
+        <f t="shared" ref="C31:C33" si="4">B31*C$29</f>
         <v>10</v>
       </c>
     </row>
@@ -1153,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
@@ -1166,7 +1224,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
     </row>
@@ -1202,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ref="C37:C39" si="3">B37*C$35</f>
+        <f t="shared" ref="C37:C39" si="5">B37*C$35</f>
         <v>10</v>
       </c>
     </row>
@@ -1214,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -1227,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
     </row>
@@ -1263,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" ref="C43:C45" si="4">B43*C$41</f>
+        <f t="shared" ref="C43:C45" si="6">B43*C$41</f>
         <v>2</v>
       </c>
     </row>
@@ -1275,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -1288,7 +1346,7 @@
         <v>19</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
     </row>
@@ -1335,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q29"/>
+  <dimension ref="A2:Q30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,14 +1500,14 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>1</v>
+      <c r="A11" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="11">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="D11" s="11">
         <v>4</v>
@@ -1462,25 +1520,25 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ref="H11:H26" si="1">ROUND(G11*C$6, -1)</f>
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ref="J11:J28" si="2">I11-H11</f>
-        <v>-200</v>
+        <v>-130</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M11" s="1" t="str">
         <f>CONCATENATE(K11,L11)</f>
-        <v>КПСЭнг(A)-FRHF2х2х0,5</v>
+        <v>КПСЭнг(A)-FRHF1х2х0,75</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>45</v>
@@ -1496,7 +1554,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="12">
         <v>1.5</v>
@@ -1540,16 +1598,16 @@
       </c>
       <c r="P12" s="17">
         <f t="shared" ref="P12:P14" si="4">SUMIF(M$11:M$28,O12,H$11:H$28)</f>
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="17">
-        <f>SUM(H11:H12)</f>
-        <v>360</v>
+        <f>H12</f>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>3</v>
+      <c r="A13" s="1">
+        <v>4</v>
       </c>
       <c r="B13" s="14">
         <v>1.6</v>
@@ -1593,16 +1651,16 @@
       </c>
       <c r="P13" s="17">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>670</v>
       </c>
       <c r="Q13" s="17">
-        <f>SUM(H18:H21)+H27</f>
-        <v>540</v>
+        <f>SUM(H18:H21)+H27+H11</f>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="15">
         <v>1.7</v>
@@ -1655,7 +1713,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="15">
         <v>1.8</v>
@@ -1708,7 +1766,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="15">
         <v>1.9</v>
@@ -1750,16 +1808,16 @@
       <c r="O16" s="18"/>
       <c r="P16" s="19">
         <f>SUM(P11:P15)</f>
-        <v>1920</v>
+        <v>1850</v>
       </c>
       <c r="Q16" s="19">
         <f>SUM(Q11:Q15)</f>
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>7</v>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>8</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>32</v>
@@ -1799,9 +1857,9 @@
         <v>КПСЭнг(A)-FRHF1х2х0,5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>33</v>
@@ -1841,9 +1899,9 @@
         <v>КПСЭнг(A)-FRHF1х2х0,75</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>34</v>
@@ -1883,9 +1941,9 @@
         <v>КПСЭнг(A)-FRHF1х2х0,75</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>35</v>
@@ -1925,9 +1983,9 @@
         <v>КПСЭнг(A)-FRHF1х2х0,75</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>11</v>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>36</v>
@@ -1967,9 +2025,9 @@
         <v>КПСЭнг(A)-FRHF1х2х0,75</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>20</v>
@@ -2008,10 +2066,16 @@
         <f t="shared" si="3"/>
         <v>КПСЭнг(A)-FRHF2х2х0,75</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>21</v>
@@ -2050,10 +2114,16 @@
         <f t="shared" si="3"/>
         <v>КПСЭнг(A)-FRHF2х2х0,75</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>22</v>
@@ -2092,10 +2162,16 @@
         <f t="shared" si="3"/>
         <v>КПСЭнг(A)-FRHF2х2х0,75</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O24" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="30">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>23</v>
@@ -2134,10 +2210,16 @@
         <f t="shared" si="3"/>
         <v>КПСЭнг(A)-FRHF2х2х0,75</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>24</v>
@@ -2176,10 +2258,16 @@
         <f t="shared" si="3"/>
         <v>КПСЭнг(A)-FRHF2х2х0,75</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>17</v>
+      <c r="O26" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" s="30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>48</v>
@@ -2204,10 +2292,16 @@
         <f t="shared" ref="M27:M28" si="7">CONCATENATE(K27,L27)</f>
         <v>КПСЭнг(A)-FRHF1х2х0,75</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>18</v>
+      <c r="O27" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>49</v>
@@ -2232,13 +2326,31 @@
         <f t="shared" si="7"/>
         <v>F/UTP Cat5e ZH нг(А)-HF 4х2х0,52</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O28" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="9">
         <f>SUM(H11:H28)</f>
-        <v>1920</v>
+        <v>1850</v>
       </c>
       <c r="M29" s="5"/>
+      <c r="O29" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" s="30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P30" s="1">
+        <f>SUM(P25:P29)</f>
+        <v>380</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Лотки.xlsx
+++ b/Лотки.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лоток" sheetId="1" r:id="rId1"/>
-    <sheet name="Кабель" sheetId="2" r:id="rId2"/>
-    <sheet name="М.рукав" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Кабель" sheetId="2" r:id="rId3"/>
+    <sheet name="М.рукав" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лоток!$A$1:$E$50</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="61">
   <si>
     <t>Лоток перфорированный Стандарт, 150х80x3000</t>
   </si>
@@ -204,6 +205,9 @@
   </si>
   <si>
     <t>1x2x0,75</t>
+  </si>
+  <si>
+    <t>КС М6´10.</t>
   </si>
 </sst>
 </file>
@@ -740,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1393,10 +1397,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="L7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,12 +2388,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
